--- a/لیست تست.xlsx
+++ b/لیست تست.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Koodrizi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Koodrizi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="M505" sqref="M505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,14 +502,14 @@
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="14.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="6"/>
-    <col min="11" max="11" width="13.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="5" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="9" customWidth="1"/>
     <col min="13" max="14" width="14.85546875" style="2" customWidth="1"/>
     <col min="15" max="16" width="8.85546875" style="2"/>
@@ -604,15 +604,15 @@
       </c>
       <c r="K2" s="5">
         <f>IF(C2&lt;&gt;"",ROUND((G2/100+1)*(M$2-(C2-O$2)*Q$2+(P$2-E2)*R$2),-1),0)</f>
-        <v>174370</v>
+        <v>174880</v>
       </c>
       <c r="L2" s="9">
         <f>K2*J2</f>
-        <v>83470919</v>
+        <v>83715056</v>
       </c>
       <c r="M2" s="2">
         <f>S2*(1-H502)</f>
-        <v>174220</v>
+        <v>174736.15145964446</v>
       </c>
       <c r="N2" s="2">
         <f>J502</f>
@@ -670,11 +670,11 @@
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K66" si="4">IF(C3&lt;&gt;"",ROUND((G3/100+1)*(M$2-(C3-O$2)*Q$2+(P$2-E3)*R$2),-1),0)</f>
-        <v>160170</v>
+        <v>160680</v>
       </c>
       <c r="L3" s="9">
         <f t="shared" ref="L3:L15" si="5">K3*J3</f>
-        <v>11500206</v>
+        <v>11536824</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
@@ -714,15 +714,15 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" si="4"/>
-        <v>171020</v>
+        <v>171530</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="5"/>
-        <v>166983928</v>
+        <v>167481892</v>
       </c>
       <c r="N4" s="3">
         <f>L502</f>
-        <v>1517049287</v>
+        <v>1516979642</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -746,9 +746,12 @@
         <f t="shared" si="1"/>
         <v>0.90970416647526287</v>
       </c>
+      <c r="G5" s="6">
+        <v>0.9</v>
+      </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3544260186503738E-2</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="3"/>
@@ -759,11 +762,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="4"/>
-        <v>174520</v>
+        <v>176610</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="5"/>
-        <v>141064516</v>
+        <v>142753863</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -787,9 +790,12 @@
         <f t="shared" si="1"/>
         <v>1.3835879002250906</v>
       </c>
+      <c r="G6" s="6">
+        <v>-1.4</v>
+      </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.37980844319904444</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="3"/>
@@ -800,11 +806,11 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" si="4"/>
-        <v>174620</v>
+        <v>172680</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="5"/>
-        <v>412504826.00000006</v>
+        <v>407921964.00000006</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -841,11 +847,11 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="4"/>
-        <v>174870</v>
+        <v>175380</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="5"/>
-        <v>561997206</v>
+        <v>563636244</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -882,11 +888,11 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" si="4"/>
-        <v>175220</v>
+        <v>175730</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="5"/>
-        <v>139527686</v>
+        <v>139933799</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1122,7 +1128,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -4515,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -4602,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -5646,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -6487,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -6806,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -7038,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -7125,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -7444,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -7473,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -7995,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -8401,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -8662,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -8691,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -8749,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -8778,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -8865,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -8923,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -8981,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -9010,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -9039,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -9068,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -9155,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -9213,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -9329,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -9358,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -9416,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -9445,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -9532,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -9590,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -9619,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -9706,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -9764,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -9909,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -9938,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -9967,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -9996,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -10141,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -10199,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -10228,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -10257,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -10286,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -10344,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -10373,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -10460,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -10518,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -10547,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -10576,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -10692,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -10721,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -10750,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -10808,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -10866,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -10895,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -10924,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -10953,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -10982,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -11011,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -11040,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -11098,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -11185,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -11214,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -11243,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -11272,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -11301,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -11359,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -11388,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -11446,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -11475,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -11504,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -11562,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -11678,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -11736,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -11765,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -11794,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -11881,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -11939,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -11997,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -12026,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -12055,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -12113,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -12142,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -12171,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -12200,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -12258,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -12316,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -12345,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -12403,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -12432,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -12461,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -12490,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -12548,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -12577,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -12606,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -12693,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>415</v>
       </c>
@@ -12722,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -12751,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -12780,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -12809,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -12867,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -12925,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
         <v>423</v>
       </c>
@@ -12954,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -12983,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -13012,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -13041,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>428</v>
       </c>
@@ -13099,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
         <v>429</v>
       </c>
@@ -13128,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>430</v>
       </c>
@@ -13157,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
         <v>431</v>
       </c>
@@ -13186,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -13215,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -13244,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -13273,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -13302,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -13331,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -13389,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -13447,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -13476,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -13505,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -13563,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -13592,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -13621,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -13650,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -13679,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -13708,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -13737,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -13795,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -13824,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -13853,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -13882,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -13911,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -13940,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -13969,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -13998,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -14056,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -14085,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -14114,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>464</v>
       </c>
@@ -14143,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -14201,7 +14207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -14230,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -14259,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>469</v>
       </c>
@@ -14288,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>470</v>
       </c>
@@ -14317,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
         <v>471</v>
       </c>
@@ -14346,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>472</v>
       </c>
@@ -14375,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
         <v>473</v>
       </c>
@@ -14404,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>474</v>
       </c>
@@ -14433,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <v>475</v>
       </c>
@@ -14462,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>476</v>
       </c>
@@ -14491,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
         <v>477</v>
       </c>
@@ -14520,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>478</v>
       </c>
@@ -14549,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
         <v>479</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>480</v>
       </c>
@@ -14607,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>481</v>
       </c>
@@ -14636,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>482</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
         <v>483</v>
       </c>
@@ -14694,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>484</v>
       </c>
@@ -14723,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
         <v>485</v>
       </c>
@@ -14752,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>486</v>
       </c>
@@ -14781,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -14810,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -14839,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -14868,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -14897,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -14926,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -14955,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <v>493</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -15013,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -15042,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -15071,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -15100,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -15129,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -15158,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -15201,7 +15207,7 @@
       </c>
       <c r="H502" s="5">
         <f>SUM(H2:H501)/100</f>
-        <v>0</v>
+        <v>-2.962641830125407E-3</v>
       </c>
       <c r="J502" s="6">
         <f>SUM(J2:J501)</f>
@@ -15209,11 +15215,11 @@
       </c>
       <c r="K502" s="5">
         <f>M2</f>
-        <v>174220</v>
+        <v>174736.15145964446</v>
       </c>
       <c r="L502" s="9">
         <f>SUM(L2:L501)</f>
-        <v>1517049287</v>
+        <v>1516979642</v>
       </c>
     </row>
   </sheetData>
